--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3210.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3210.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147943232077547</v>
+        <v>1.765646815299988</v>
       </c>
       <c r="B1">
-        <v>3.101497592878424</v>
+        <v>2.100370645523071</v>
       </c>
       <c r="C1">
-        <v>6.403677495300641</v>
+        <v>2.250666618347168</v>
       </c>
       <c r="D1">
-        <v>2.369118423412179</v>
+        <v>2.966165781021118</v>
       </c>
       <c r="E1">
-        <v>1.424746193141865</v>
+        <v>1.699885964393616</v>
       </c>
     </row>
   </sheetData>
